--- a/files/menu.xlsx
+++ b/files/menu.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -356,136 +356,114 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 월(03.23)
-점심메뉴
-[테이크아웃도시락]
-*4500원-11:30~13:30
+          <t>선택한 날짜 : 월(04.13)
+점심메뉴
+*테이크아웃도시락
+[4500원]
+-11:30~13:30
 현미밥
-쇠불고기볶음
+불고기볶음/양배추찜
 모듬튀김
-건새우볶음
-무말랭이무침
-풋마늘무침
+풋고추오이/쌈장
+도토리묵무침
+멸치볶음
 맛김치볶음
-*모듬김밥[5000원]
--11:45~30개 한정
-저녁메뉴
-[컵밥도시락-3500원]
-매운짜장덮밥
-요구르트
-*17:30~18:30
-[코로나19 확산대비
-다중이용시설 폐쇄]
-식당 안에서 식사는
-금지합니다</t>
+[모듬김밥-5000원]
+-11:45~ 30개 한정
+[일품도시락-3500원]
+불고기덮밥
+저녁메뉴
+[일품도시락-3500원]
+새우볶음밥
+*17:30~18:30</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 화(03.24)
-점심메뉴
-[테이크아웃도시락]
-*4500원-11:30~13:30
+          <t>선택한 날짜 : 화(04.14)
+점심메뉴
+*테이크아웃도시락
+[4500원]
+-11:30~13:30
 현미밥
-조림닭
-베이컨숙주볶음
-야채춘권
-도토리묵무침
-도라지나물볶음
+야채찜닭
+순대야채볶음
+미역줄기볶음
+검정콩조림
+양상치샐러드
 맛김치볶음
-*모듬김밥[5000원]
--11:45~30개 한정
-저녁메뉴
-[컵밥도시락-3500원]
+[모듬김밥-5000원]
+-11:45~ 30개 한정
+[일품도시락-3500원]
 함박마요덮밥
-*17:30~18:30
-[코로나19 확산대비
-다중이용시설 폐쇄]
-식당 안에서 식사는
-금지합니다.</t>
+저녁메뉴
+[일품도시락-3500원]
+콩나물불고기덮밥
+*17:30~18:30</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 수(03.25)
-점심메뉴
-[테이크아웃도시락]
-*4500원-11:30~13:30
+          <t>선택한 날짜 : 수(04.15)
+점심메뉴
+식당 운영 없음
+(국회의원 선거일)
+저녁메뉴
+식당 운영 없음
+(국회의원 선거일)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 목(04.16)
+점심메뉴
+*테이크아웃도시락
+[4500원]
+-11:30~13:30
 현미밥
-목련꽃돈가스
-오징어우동면볶음
-어묵야채볶음
-야채계란말이
-멸치호두조림
+고추잡채/꽃빵
+단호박샐러드
+깐쇼새우
+골뱅이무침
+목이버섯볶음
 맛김치볶음
-*모듬김밥[5000원]
--11:45~30개 한정
-저녁메뉴
-[컵밥도시락-3500원]
-우렁된장비빔밥
-과채쥬스
-*17:30~18:30
-[코로나19 확산 대비
-다중이용시설 폐쇄]
-식당 안에서 식사는
-금지합니다.</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 목(03.26)
-점심메뉴
-[테이크아웃도시락]
-*4500원-11:30~13:30
+[모듬김밥-5000원]
+-11:45~ 30개 한정
+[일품도시락-3500원]
+산채비빔밥
+저녁메뉴
+[일품도시락-3500원]
+훈제오리볶음밥
+*17:30~18:30</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 금(04.17)
+점심메뉴
+*테이크아웃도시락
+[4500원]
+-11:30~13:30
 현미밥
-돈육야채조림
-간장떡볶이
-닭매콤조림
-모듬산나물무침
-쥐어채볶음
+삼치조림
+어묵잡채
+섭산적떡조림
+마늘종콩가루찜
+감자구이
 맛김치볶음
-*모듬김밥[5000원]
--11:45~30개 한정
-저녁메뉴
-[컵밥도시락-3500원]
-추억의도시락
-쿨피스
-*17:30~18:30
-[코로나19 확산대비
-다중이용시설 폐쇄]
-식당 안에서 식사는
-금지합니다.</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 금(03.27)
-점심메뉴
-[테이크아웃도시락]
-*4500원-11:30~13:30
-현미밥
-오돈불고기볶음
-두부은행구이
-동그랑땡전
-오이부추생채
-맛김치볶음
-찐고구마
-*모듬김밥[5000원]
--11:45~30개 한정
-저녁메뉴
-[컵밥도시락-3500원]
-오므라이스
-과채쥬스
-*17:30~18:30
-[코로나19 확산대비
-다중이용시설 폐쇄]
-식당 안에서 식사는
-금지합니다.</t>
+[모듬김밥-5000원]
+-11:45~ 30개 한정
+[일품도시락-3500원]
+카레덮밥
+저녁메뉴
+[일품도시락-3500원]
+스팸김치덮밥
+*17:30~18:30</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 토(03.28)
+          <t>선택한 날짜 : 토(04.18)
 점심메뉴
 식당 운영 없음
 저녁메뉴
@@ -494,7 +472,7 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 일(03.29)
+          <t>선택한 날짜 : 일(04.19)
 점심메뉴
 식당 운영 없음
 저녁메뉴
@@ -616,136 +594,111 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 월(03.23)
-점심메뉴
-[테이크아웃도시락]
-*4500원-11:30~13:30
+          <t>선택한 날짜 : 월(04.13)
+점심메뉴
+*테이크아웃도시락
+[4500원]
+-11:30~13:30
 현미밥
-쇠불고기볶음
+불고기볶음/양배추찜
 모듬튀김
-건새우볶음
-무말랭이무침
-풋마늘무침
+풋고추오이/쌈장
+도토리묵무침
+멸치볶음
 맛김치볶음
-*모듬김밥[5000원]
--11:45~30개 한정
-저녁메뉴
-[컵밥도시락-3500원]
-매운짜장덮밥
-요구르트
-*17:30~18:30
-[코로나19 확산대비
-다중이용시설 폐쇄]
-식당 안에서 식사는
-금지합니다.</t>
+[모듬김밥-5000원]
+-11:45~ 30개 한정
+[일품도시락-3500원]
+불고기덮밥
+저녁메뉴
+[일품도시락-3500원]
+새우볶음밥
+*17:30~18:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 화(03.24)
-점심메뉴
-[테이크아웃도시락]
-*4500원-11:30~13:30
+          <t>선택한 날짜 : 화(04.14)
+점심메뉴
+*테이크아웃도시락
+[4500원]
+-11:30~13:30
 현미밥
-조림닭
-베이컨숙주볶음
-야채춘권
-도토리묵무침
-도라지나물볶음
+야채찜닭
+순대야채볶음
+미역줄기볶음
+검정콩조림
+양상치샐러드
 맛김치볶음
-*모듬김밥[5000원]
--11:45~30개 한정
-저녁메뉴
-[컵밥도시락-3500원]
+[모듬김밥-5000원]-11:45~ 30개 한정
+[일품도시락-3500원]
 함박마요덮밥
-*17:30~18:30
-[코로나19 확산대비
-다중이용시설 폐쇄]
-식당 안에서 식사는
-금지합니다.</t>
+저녁메뉴
+[일품도시락-3500원]
+콩나물불고기덮밥
+*17:30~18:30</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 수(03.25)
-점심메뉴
-[테이크아웃도시락]
-*4500원-11:30~13:30
+          <t>선택한 날짜 : 수(04.15)
+점심메뉴
+식당 운영 없음
+(국회의원 선거일)
+저녁메뉴
+식당 운영 없음
+(국회의원 선거일)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 목(04.16)
+점심메뉴
+*테이크아웃도시락
+[4500원]
+-11:30~13:30
 현미밥
-목련꽃돈가스
-오징어우동면볶음
-어묵야채볶음
-야채계란말이
-멸치호두조림
+고추잡채/꽃빵
+단호박샐러드
+깐쇼새우
+골뱅이무침
+목이버섯볶음
 맛김치볶음
-*모듬김밥[5000원]
--11:45~30개 한정
-저녁메뉴
-[컵밥도시락-3500원]
-우렁된장비빔밥
-과채쥬스
-*17:30~18:30
-[코로나19 확산 대비
-다중이용시설 폐쇄]
-식당 안에서 식사는
-금지합니다.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 목(03.26)
-점심메뉴
-[테이크아웃도시락]
-*4500원-11:30~13:30
+[모듬김밥-5000원]-11:45~ 30개 한정
+[일품도시락-3500원]
+산채비빔밥
+저녁메뉴
+[일품도시락-3500원]
+훈제오리볶음밥
+*17:30~18:30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 금(04.17)
+점심메뉴
+*테이크아웃도시락
+[4500원]
+-11:30~13:30
 현미밥
-돈육야채조림
-간장떡볶이
-닭매콤조림
-모듬산나물무침
-쥐어채볶음
+삼치조림
+어묵잡채
+섭산적떡조림
+마늘종콩가루찜
+감자구이
 맛김치볶음
-*모듬김밥[5000원]
--11:45~30개 한정
-저녁메뉴
-[컵밥도시락-3500원]
-추억의도시락
-쿨피스
-*17:30~18:30
-[코로나19 확산대비
-다중이용시설 폐쇄]
-식당 안에서 식사는
-금지합니다.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 금(03.27)
-점심메뉴
-[테이크아웃도시락]
-*4500원-11:30~13:30
-현미밥
-오돈불고기볶음
-두부은행구이
-동그랑땡전
-오이부추생채
-맛김치볶음
-찐고구마
-*모듬김밥[5000원]
--11:45~30개 한정
-저녁메뉴
-[컵밥도시락-3500원]
-오므라이스
-과채쥬스
-*17:30~18:30
-[코로나19 확산대비
-다중이용시설 폐쇄]
-식당 안에서 식사는
-금지합니다.</t>
+[모듬김밥-5000원]-11:45~ 30개 한정
+[일품도시락-3500원]
+카레덮밥
+저녁메뉴
+[일품도시락-3500원]
+스팸김치덮밥
+*17:30~18:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 토(03.28)
+          <t>선택한 날짜 : 토(04.18)
 점심메뉴
 식당 운영 없음
 저녁메뉴
@@ -754,7 +707,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 일(03.29)
+          <t>선택한 날짜 : 일(04.19)
 점심메뉴
 식당 운영 없음
 저녁메뉴
@@ -765,48 +718,48 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 월(03.23)
+          <t>선택한 날짜 : 월(04.13)
 식당 운영 없음</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 화(03.24)
+          <t>선택한 날짜 : 화(04.14)
 식당 운영 없음</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 수(03.25)
+          <t>선택한 날짜 : 수(04.15)
 식당 운영 없음</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 목(03.26)
+          <t>선택한 날짜 : 목(04.16)
 식당 운영 없음</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 금(03.27)
+          <t>선택한 날짜 : 금(04.17)
 식당 운영 없음</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 토(03.28)
+          <t>선택한 날짜 : 토(04.18)
 식당 운영 없음</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 일(03.29)
+          <t>선택한 날짜 : 일(04.19)
 식당 운영 없음</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/files/menu.xlsx
+++ b/files/menu.xlsx
@@ -356,123 +356,146 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 월(04.13)
-점심메뉴
-*테이크아웃도시락
-[4500원]
--11:30~13:30
-현미밥
-불고기볶음/양배추찜
-모듬튀김
-풋고추오이/쌈장
-도토리묵무침
-멸치볶음
-맛김치볶음
-[모듬김밥-5000원]
--11:45~ 30개 한정
+          <t>선택한 날짜 : 월(06.01)
+점심메뉴
+[식당 급식: 2800원]
+-11:30~14:00
+쌀밥
+유부장국
+돈육야채조림
+쥐어채볶음
+솎음배추생채
+깍두기
+-------------------------
+[도시락: 4500원]
+-11:30~100개 한정
+[돈까스도시락]
+[6찬도시락]
+- 도시락은 분식당에서 판매합니다-
+저녁메뉴
+-17:30~18:30
 [일품도시락-3500원]
-불고기덮밥
-저녁메뉴
+* 콩나물불고기덮밥
+[모듬까스도시락
+- 4500원]</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 화(06.02)
+점심메뉴
+[식당 급식: 2800원]
+-11:30~14:00
+쌀밥
+들깨무국
+고추장불고기
+천사채샐러드
+양배추찜/양념장
+맛김치
+-------------------------
+[도시락: 4500원]
+-11:30~100개 한정
+[치킨까스도시락]
+[6찬도시락]
+- 도시락은 분식당에서 판매합니다-
+저녁메뉴
+-17:30~18:30
 [일품도시락-3500원]
-새우볶음밥
-*17:30~18:30</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 화(04.14)
-점심메뉴
-*테이크아웃도시락
-[4500원]
--11:30~13:30
-현미밥
-야채찜닭
-순대야채볶음
-미역줄기볶음
-검정콩조림
-양상치샐러드
-맛김치볶음
-[모듬김밥-5000원]
--11:45~ 30개 한정
+*함박마요덮밥
+[파돈까스도시락
+- 4500원]</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 수(06.03)
+점심메뉴
+[식당 급식: 2800원]
+-11:30~14:00
+자장덮밥
+계란야채국
+군만두
+단무지무침
+숙주나물무침
+맛김치
+-------------------------
+[도시락: 4500원]
+-11:30~100개 한정
+[스테이크도시락]
+[6찬도시락]
+- 도시락은 분식당에서 판매합니다-
+저녁메뉴
+-17:30~18:30
 [일품도시락-3500원]
-함박마요덮밥
-저녁메뉴
+* 중화비빔밥
+[치킨까스도시락
+- 4500원]</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 목(06.04)
+점심메뉴
+[식당 급식: 2800원]
+-11:30~14:00
+쌀밥
+콩가루배추국
+오징어무침회
+미트볼어묵볶음
+호박새우젓볶음
+맛김치
+-------------------------
+[도시락: 4500원]
+-11:30~100개 한정
+[모듬까스도시락]
+[6찬도시락]
+- 도시락은 분식당에서 판매합니다-
+저녁메뉴
+-17:30~18:30
 [일품도시락-3500원]
-콩나물불고기덮밥
-*17:30~18:30</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 수(04.15)
+* 멘치카츠카레덮밥
+[스테이크도시락
+- 4500원]</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 금(06.05)
+점심메뉴
+[식당 급식: 2800원]
+-11:30~14:00
+쌀밥
+감자맑은국
+비엔나소세지볶음
+누룽지샐러드
+콩나물무침
+맛김치
+-------------------------
+[도시락: 4500원]
+-11:30~100개 한정
+[카레돈까스도시락]
+[6찬도시락]
+- 도시락은 분식당에서 판매합니다-
+저녁메뉴
+-17:30~18:30
+[일품도시락-3500원]
+* 추억의도시락
+[모듬까스도시락
+- 4500원]</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 토(06.06)
 점심메뉴
 식당 운영 없음
-(국회의원 선거일)
-저녁메뉴
-식당 운영 없음
-(국회의원 선거일)</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 목(04.16)
-점심메뉴
-*테이크아웃도시락
-[4500원]
--11:30~13:30
-현미밥
-고추잡채/꽃빵
-단호박샐러드
-깐쇼새우
-골뱅이무침
-목이버섯볶음
-맛김치볶음
-[모듬김밥-5000원]
--11:45~ 30개 한정
-[일품도시락-3500원]
-산채비빔밥
-저녁메뉴
-[일품도시락-3500원]
-훈제오리볶음밥
-*17:30~18:30</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 금(04.17)
-점심메뉴
-*테이크아웃도시락
-[4500원]
--11:30~13:30
-현미밥
-삼치조림
-어묵잡채
-섭산적떡조림
-마늘종콩가루찜
-감자구이
-맛김치볶음
-[모듬김밥-5000원]
--11:45~ 30개 한정
-[일품도시락-3500원]
-카레덮밥
-저녁메뉴
-[일품도시락-3500원]
-스팸김치덮밥
-*17:30~18:30</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 토(04.18)
-점심메뉴
-식당 운영 없음
 저녁메뉴
 식당 운영 없음</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 일(04.19)
+          <t>선택한 날짜 : 일(06.07)
 점심메뉴
 식당 운영 없음
 저녁메뉴
@@ -483,64 +506,234 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>등록된 메뉴가 없습니다. 😥</t>
+          <t>선택한 날짜 : 월(06.01)
+점심메뉴
+백미밥
+손만두국
+미트볼케찹조림
+꽁치구이
+깍뚝오이무침
+맛김치
+저녁메뉴
+백미밥
+김치햄찌개
+후라이드치킨
+건새우마늘쫑볶음
+달콤한건파래볶음
+백깍두기</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>등록된 메뉴가 없습니다. 😥</t>
+          <t>선택한 날짜 : 화(06.02)
+점심메뉴
+혼합잡곡밥
+들깨무채국
+돈불낙지볶음
+순두부양념장
+우엉채조침
+맛김치
+저녁메뉴
+순대국밥
+왕새우튀김&amp;크림소스
+부추팽이생채
+깍두기
+쿨피스</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>등록된 메뉴가 없습니다. 😥</t>
+          <t>선택한 날짜 : 수(06.03)
+점심메뉴
+스팸마요덮밥
+우동국물
+납작군만두
+깍두기
+방울토마토
+저녁메뉴
+백미밥
+열무된장국
+고등어무조림
+게맛살계란볶음
+시금치나물
+맛김치</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>등록된 메뉴가 없습니다. 😥</t>
+          <t>선택한 날짜 : 목(06.04)
+점심메뉴
+백미밥
+북어무국
+돼지갈비찜
+아기볼어묵볶음
+콩나물겨자냉채
+맛김치
+저녁메뉴
+흑미밥
+무콩나물국
+김치찜닭
+명엽채볶음
+돌나물무침
+깍두기</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>등록된 메뉴가 없습니다. 😥</t>
+          <t>선택한 날짜 : 금(06.05)
+점심메뉴
+차조밥
+부대찌개
+갈치카레구이
+채소모듬어묵
+숙주나물
+백김치
+저녁메뉴
+장칼국수
+대만식지파이
+락교
+단무지
+맛김치
+요구르트</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>등록된 메뉴가 없습니다. 😥</t>
+          <t>선택한 날짜 : 토(06.06)
+점심메뉴
+백미밥
+참치미역국
+닭고기카레떡볶음
+꽈리고추멸치볶음
+가지양파볶음
+맛김치
+저녁메뉴
+혼합잡곡밥
+순두부백탕
+제욱고추장볶음
+진미채무침
+상추깻잎쌈
+맛김치</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>등록된 메뉴가 없습니다. 😥</t>
+          <t>선택한 날짜 : 일(06.07)
+점심메뉴
+영양닭백숙
+언양식바싹불고기
+깍두기
+카카오머핀
+저녁메뉴
+백미밥
+열무된장국
+메추리알돈육조림
+코다리깐풍기
+도라지무생채
+맛김치</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>등록된 메뉴가 없습니다. 😥</t>
+          <t>선택한 날짜 : 월(06.01)
+아침메뉴
+백미밥
+콩나물무채국
+쇠고기메란장조림
+어묵볶음
+오이양파무침
+배추김치
+플레인요거트/아몬드시리얼
+저녁메뉴
+백미밥
+호박고추장찌개
+돈육강정
+잡채
+무미나리생채
+배추김치</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>등록된 메뉴가 없습니다. 😥</t>
+          <t>선택한 날짜 : 화(06.02)
+아침메뉴
+백미밥
+쇠고기무국
+코다리엿장조림
+두부달걀전/양념장
+햄감자채볶음
+배추김치
+프렌치토스드/딸기우유o
+초코우유
+저녁메뉴
+콩나물비빔밥
+도토리묵채국
+무말랭이무침
+배추김치
+소떡소떡/케찹
+썬키스트머스켓</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>등록된 메뉴가 없습니다. 😥</t>
+          <t>선택한 날짜 : 수(06.03)
+아침메뉴
+백미밥
+떡만두국(뚝)
+미니바베큐바소스조림
+삼색달걀찜
+비타민만다린샐러드/무지방자몽드레싱
+배추김치
+저녁메뉴
+백미밥
+김치어묵국
+야채찜닭
+해물땡전/케찹
+숙주나물무침
+깍두기</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>등록된 메뉴가 없습니다. 😥</t>
+          <t>선택한 날짜 : 목(06.04)
+아침메뉴
+백미밥
+닭개장
+고등어구이/양념장
+빌포크소시지브로컬리볶음
+맛살미역줄기볶음
+배추김치
+방울절편/엔요100
+저녁메뉴
+백미밥
+부추계란국
+치킨까스/머스타드소스
+까르보나라
+양상추견과류샐러드/이탈리안드레싱
+배추김치
+망고주스</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>등록된 메뉴가 없습니다. 😥</t>
+          <t>선택한 날짜 : 금(06.05)
+아침메뉴
+백미밥
+시금치된장국
+돈육간장불고기
+애호박전/양념장
+진미양배추무침
+배추김치
+바나나
+저녁메뉴
+햄야채볶음밥
+우동
+키다리춘권/초간장
+단무지
+배추김치
+쥬시쿨파인</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -594,120 +787,233 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 월(04.13)
-점심메뉴
-*테이크아웃도시락
-[4500원]
--11:30~13:30
-현미밥
-불고기볶음/양배추찜
-모듬튀김
-풋고추오이/쌈장
-도토리묵무침
-멸치볶음
+          <t>선택한 날짜 : 월(06.01)
+점심메뉴
+[식당 급식: 4500원]
+-11:30~14:00
+현미밥
+아욱된장국
+오리훈제볶음
+브로컬리두부무침
+왕만두찜
+야채겉절이
+포기김치
+-------------------------
+[테이크아웃도시락]
+-11:30~100개 한정
+- 도시락은  분식당에서 판매합니다-
+현미밥
+아욱된장국
+오리훈제볶음
+양장피잡채
+브로컬리두부무침
+쥐어채볶음
+풋고추/오이쌈장
 맛김치볶음
-[모듬김밥-5000원]
--11:45~ 30개 한정
+저녁메뉴
+[식당 급식: 4500원]
+-17:30~18:30
+현미밥
+부대찌개
+양장피잡채
+계란장조림
+멸치아몬드조림
+가지나물무침
+포기김치
+방울토마토
+-------------------------
+-17:30~18:30
 [일품도시락-3500원]
-불고기덮밥
-저녁메뉴
+*콩나물불고기덮밥
+[모듬까스도시락
+- 4500원]</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 화(06.02)
+점심메뉴
+[식당 급식: 4500원]
+-11:30~14:00
+현미밥
+닭개장
+해물우동볶음
+찹쌀탕수육
+건오징어채무침
+풋고추장아찌무침
+포기김치
+-------------------------
+[테이크아웃도시락]
+-11:30~100개 한정
+- 도시락은  분식당에서 판매합니다-
+현미밥
+들깨무국
+고추장불고기
+해물우동볶음
+찹쌀탕수육
+건오징어채무침
+풋고추장아찌무침
+맛김치볶음
+저녁메뉴
+[식당 급식: 4500원]
+-17:30~18:30
+현미밥
+근대된장국
+고등어조림
+비빔만두
+숙주나물무침
+맛김구이
+포기김치
+과채쥬스
+-------------------------
+-17:30~18:30
 [일품도시락-3500원]
-새우볶음밥
-*17:30~18:30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 화(04.14)
-점심메뉴
-*테이크아웃도시락
-[4500원]
--11:30~13:30
-현미밥
+*함박마요덮밥
+[파돈까스도시락
+- 4500원]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 수(06.03)
+점심메뉴
+[식당 급식: 4500원]
+-11:30~14:00
+현미밥
+들깨미역국
+돼지갈비찜
+어묵양파볶음
+누룽지샐러드
+상치파겉절이
+포기김치
+-------------------------
+[테이크아웃도시락]
+-11:30~100개 한정
+- 도시락은  분식당에서 판매합니다-
+현미밥
+들깨미역국
+돼지갈비찜
+깐풍만두
+어묵볶음
+누룽지샐러드
+숙주나물무침
+맛김치볶음
+저녁메뉴
+[식당 급식: 4500원]
+-17:30~18:30
+현미밥
+쇠고기느타리버섯국
+새우통살까스
+섭산적조림
+옥수수콘샐러드
+진미채무침
+포기김치
+-------------------------
+-17:30~18:30
+[일품도시락-3500원]
+*중화비빔밥
+[치킨까스도시락
+- 4500원]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 목(06.04)
+점심메뉴
+[식당 급식: 4500원]
+-11:30~14:00
+현미밥
+돼지찌개
+잡채
+오징어무침회
+치즈비엔나볶음
+만가닥버섯볶음
+호박새우젓볶음
+깍두기
+-------------------------
+[테이크아웃도시락]
+-11:30~100개 한정
+- 도시락은  분식당에서 판매합니다-
+현미밥
+콩가루배추국
+잡채
+치즈비엔나볶음
+만가닥버섯볶음
+호박새우젓볶음
+맛김치볶음
+저녁메뉴
+[식당 급식: 4500원]
+-17:30~18:30
+현미밥
+콩나물국
 야채찜닭
-순대야채볶음
-미역줄기볶음
-검정콩조림
-양상치샐러드
+야채고르케
+마카로니소스무침
+시금치무침
+포기김치
+-------------------------
+-17:30~18:30
+[일품도시락-3500원]
+*멘치카츠카레덮밥
+[스테이크도시락
+- 4500원]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 금(06.05)
+점심메뉴
+[식당 급식: 4500원]
+-11:30~14:00
+현미밥
+오징어무국
+순살파닭
+미트볼파인애플조림
+진미채무침
+콩나물무침
+포기김치
+-------------------------
+[테이크아웃도시락]
+-11:30~100개 한정
+- 도시락은  분식당에서 판매합니다-
+현미밥
+오징어무국
+순살파닭
+간장불고기
+미트볼파인애플조림
+진미채무침
+콩나물무침
 맛김치볶음
-[모듬김밥-5000원]-11:45~ 30개 한정
+저녁메뉴
+[식당 급식: 4500원]
+-17:30~18:30
+현미밥
+열무된장국
+제육불고기
+계란스크램블
+감자조림
+미역오이무침
+포기김치
+-------------------------
+- 17:30~18:30
 [일품도시락-3500원]
-함박마요덮밥
-저녁메뉴
-[일품도시락-3500원]
-콩나물불고기덮밥
-*17:30~18:30</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 수(04.15)
+*추억의 도시락
+[모듬까스도시락
+- 4500원]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 토(06.06)
 점심메뉴
 식당 운영 없음
-(국회의원 선거일)
-저녁메뉴
-식당 운영 없음
-(국회의원 선거일)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 목(04.16)
-점심메뉴
-*테이크아웃도시락
-[4500원]
--11:30~13:30
-현미밥
-고추잡채/꽃빵
-단호박샐러드
-깐쇼새우
-골뱅이무침
-목이버섯볶음
-맛김치볶음
-[모듬김밥-5000원]-11:45~ 30개 한정
-[일품도시락-3500원]
-산채비빔밥
-저녁메뉴
-[일품도시락-3500원]
-훈제오리볶음밥
-*17:30~18:30</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 금(04.17)
-점심메뉴
-*테이크아웃도시락
-[4500원]
--11:30~13:30
-현미밥
-삼치조림
-어묵잡채
-섭산적떡조림
-마늘종콩가루찜
-감자구이
-맛김치볶음
-[모듬김밥-5000원]-11:45~ 30개 한정
-[일품도시락-3500원]
-카레덮밥
-저녁메뉴
-[일품도시락-3500원]
-스팸김치덮밥
-*17:30~18:30</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 토(04.18)
-점심메뉴
-식당 운영 없음
 저녁메뉴
 식당 운영 없음</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 일(04.19)
+          <t>선택한 날짜 : 일(06.07)
 점심메뉴
 식당 운영 없음
 저녁메뉴
@@ -718,44 +1024,37 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 월(04.13)
-식당 운영 없음</t>
+          <t>등록된 메뉴가 없습니다. 😥</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 화(04.14)
-식당 운영 없음</t>
+          <t>등록된 메뉴가 없습니다. 😥</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 수(04.15)
-식당 운영 없음</t>
+          <t>등록된 메뉴가 없습니다. 😥</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 목(04.16)
-식당 운영 없음</t>
+          <t>등록된 메뉴가 없습니다. 😥</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 금(04.17)
-식당 운영 없음</t>
+          <t>등록된 메뉴가 없습니다. 😥</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 토(04.18)
-식당 운영 없음</t>
+          <t>등록된 메뉴가 없습니다. 😥</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 일(04.19)
-식당 운영 없음</t>
+          <t>등록된 메뉴가 없습니다. 😥</t>
         </is>
       </c>
     </row>

--- a/files/menu.xlsx
+++ b/files/menu.xlsx
@@ -424,109 +424,115 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">선택한 날짜 : 월(07.13)
+          <t xml:space="preserve">선택한 날짜 : 월(07.20)
+오늘의식단
 [식당 급식: 2800원]
 -11:30~14:00
 쌀밥
-얼큰콩나물국
-파돈까스
-감자양념구이
-아삭고추쌈장무침
+쇠고기무국
+두부양파조림
+오이생채
+진미채무침
 맛김치
 -------------------------
-[6찬도시락-4500원]
+[6찬 도시락-4500원]
 [컵밥도시락-3500원]
-(참치김치볶음밥)
+(숙주불고기덮밥)
 *11:30~100개 한정
 </t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve">선택한 날짜 : 화(07.14)
+          <t xml:space="preserve">선택한 날짜 : 화(07.21)
+오늘의식단
 [식당 급식: 2800원]
 -11:30~14:00
 쌀밥
-유부된장국
-순대떡볶음
-야채춘권
-오이생채
+근대된장국
+간장불고기)
+멸치땅콩조림
+콩나물무침
 맛김치
 -------------------------
-[6찬도시락-4500원]
+[6찬 도시락-4500원]
 [컵밥도시락-3500원]
-(중화비빔밥)
-*11:30~100개 한정
+(오므라이스)*11:30~100개 한정
 </t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t xml:space="preserve">선택한 날짜 : 수(07.15)
+          <t xml:space="preserve">선택한 날짜 : 수(07.22)
+오늘의식단
 [식당 급식: 2800원]
 -11:30~14:00
-쌀밥
-들깨무채국
-야채찜닭
-멸치볶음
-솎음배추생채
+야채볶음밥
+계란야채국
+만두강정
+맛김가루무침
+단무지무침
 맛김치
 -------------------------
-[6찬도시락-4500원]
+[6찬 도시락-4500원]
 [컵밥도시락-3500원]
-(스테이크마요덮밥)
-*11:30~100개 한정
+(닭갈비볶음밥)
+*11:30~100개
 </t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t xml:space="preserve">선택한 날짜 : 목(07.16)
-[식당 급식: 2800원]
--11:30~14:00
-쌀밥
-영양닭죽
-한입돈까스
-콩나물무침
-풋고추장아찌무침
-맛김치
--------------------------
-[6찬도시락-4500원]
-[컵밥도시락-3500원]
-(콩나물불고기덮밥)
-*11:30~100개 한정
-</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">선택한 날짜 : 금(07.17)
+          <t xml:space="preserve">선택한 날짜 : 목(07.23)
+오늘의식단
 [식당 급식: 2800원]
 -11:30~14:00
 쌀밥
 감자맑은국
-제육불고기
-숙주나물무침
-다시마부각
+햄피망볶음
+어묵잡채
+열무무침
 맛김치
 -------------------------
-[6찬도시락-4500원]
+[6찬 도시락-4500원]
 [컵밥도시락-3500원]
-(갈릭베이컨볶음밥)
+(치킨마요덮밥)
 *11:30~100개 한정
 </t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">선택한 날짜 : 금(07.24)
+오늘의식단
+[식당 급식: 2800원]
+-11:30~14:00
+카레라이스
+두부무채국
+모듬튀김
+마카로니샐러드
+아삭고추쌈장무침
+맛김치
+-------------------------
+[6찬 도시락-4500원]
+[컵밥도시락-3500원]
+(멘치카츠카레덮밥)
+*11:30~100개 한정
+</t>
+        </is>
+      </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t xml:space="preserve">선택한 날짜 : 토(07.18)
+          <t xml:space="preserve">선택한 날짜 : 토(07.25)
+오늘의식단
 식당 운영 없음
 </t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t xml:space="preserve">선택한 날짜 : 일(07.19)
+          <t xml:space="preserve">선택한 날짜 : 일(07.26)
+오늘의식단
 식당 운영 없음
 </t>
         </is>
@@ -535,276 +541,275 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 월(07.13)
+          <t>선택한 날짜 : 월(07.20)
+점심메뉴
+황기영양닭죽
+모듬견과조림
+오징어채무침
+깍두기
+수박
+저녁메뉴
+병아리콩밥
+미역국
+삼겹살구이
+콩나물무침
+상추쌈
+맛김치</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 화(07.21)
 점심메뉴
 흑미밥
-미더덕콩나물국
-돼지갈비찜
-꽈리고추멸치볶음
-취나물무침
-맛김치
-저녁메뉴
-김밥복음밥
+순두부백탕
+닭고기데리야끼조림
+김치잡채
+호두연근조림
+맛김치
+저녁메뉴
+등뼈감자탕&amp;밥
+왕새우튀김&amp;칠리소스
+풋고추양파초절이
+깍두기
+요구르트</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 수(07.22)
+점심메뉴
+참치야채비빔밥
 우동국물
-새우까스&amp;타르타르소스
 무말랭이무침
+고구마고로케
+맛김치
+미숫가루
+저녁메뉴
+차조밥
+시금치된장국
+멘치카츠
+코다리데리야끼강정
+쑥갓두부무침
+맛김치
+사과</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 목(07.23)
+점심메뉴
+흑미밥
+콩나물들깨북어국
+후라이드치킨
+달콤한건파래볶음
+가지나물
+맛김치
+요구르트
+저녁메뉴
+꼬지어묵우동&amp;김치주먹밥
+오징어스틱
+단무지
+깍두기</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 금(07.24)
+점심메뉴
+렌틸콩밥
+감자수제비국
+치즈비엔나소세지볶음
+꽁치김치조림
+열무숙무침
+깍두기
+발효유
+저녁메뉴
+백미밥
+다슬기아욱된장국
+제육고추장볶음
+도토리묵양념장
+명엽채볶음
+맛김치</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 토(07.25)
+점심메뉴
+백미밥
+쇠고기무국
+남도떡갈비
+연두부양념장
+얼갈이된장무침
+맛김치
+방울토마토
+저녁메뉴
+백미밥
+들깨무채국
+돼지고기스튜
+아기볼어묵볶음
+숙주나물
 맛김치
 요구르트</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 화(07.14)
-점심메뉴
-백미밥
-들깨무채국
-수원왕갈비통닭
-옥수수콘샐러드
-도라지생채
-백깍두기
-미숫가루
-저녁메뉴
-혼합잡곡밥
-조랭이떡국
-언양식바싹불고기
-꽁치구이
-도토리묵양념장
-백김치
-방울토마토</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 수(07.15)
-점심메뉴
-돈코츠라멘&amp;밥
-감자튀김&amp;랜치드레싱
-열무된장무침
-단무지 
-맛김치
-머핀
-저녁메뉴
-백미밥
-감자참치찌개
-돈불낙지볶음
-알감자버터구이
-참나물무침
-맛김치</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 목(07.16)
-점심메뉴
-차조밥
-갈낙탕
-고추잡채&amp;꽃빵
-명엽채볶음
-호박새우젓볶음
-맛김치
-저녁메뉴
-차조밥
-열무된장국
-닭간장조림
-실곤약탕평채
-근대나물
-맛김치</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 금(07.17)
-점심메뉴
-백미밥
-팽이미소된장국
-게맛살계란볶음
-삼치칠리강정
-오이양파생채
-맛김치
-딸기빙수
-저녁메뉴
-백미밥
-크림스프
-층층이돈까스
-얼갈이시저샐러드
-열대과일연유드레싱
-오이피킆클
-맛김치</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 토(07.18)
-점심메뉴
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 일(07.26)
+점심메뉴
+짜장밥
+짬뽕국
+튀김만두
+깍두기
+과채쥬스
+저녁메뉴
 흑미밥
-아귀탕
-제육간장불고기
-진미채무침
-미나리무생채
-맛김치
-저녁메뉴
-혼합잡곡밥
-콩나물맑은국
-만두탕수
+부대찌개
 가자미엿장구이
-고춧잎나물
-맛김치
-발효유</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 일(07.19)
-점심메뉴
-돈육김치덮밥
-계란파국
-미니돈까스
-숙주나물
-깍두기
-저녁메뉴
-백미밥
-참치미역국
-양파닭
-미역줄기볶음
-건새우고추장볶음
-맛김치</t>
+햄피망볶음
+치커리무침
+맛김치
+우유</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 월(07.13)
+          <t>선택한 날짜 : 월(07.20)
 아침메뉴
 백미밥
-시금치국
-돈육단호박떡찜
-햄어묵볶음
-가지나물
+북어달걀국
+닭봉데리조림
+메란새송이조림
+삼색나물
 배추김치
 프로바이오틱
 저녁메뉴
-보리비빔밥
-순두부된장국
-명엽채조림
+돈카레라이스
+유부된장국
+치킨까스/소스
+그린샐러드/땅콩드레싱
 배추김치
-야채춘권/초간장
-식혜</t>
+망고주스</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 화(07.14)
+          <t>선택한 날짜 : 화(07.21)
 아침메뉴
 백미밥
-사골우거지국
-두부스테이크/소스
-오징어숙회과일무침
-김자반볶음
+사골곰탕(뚝)
+돈가스강정
+오징어곤약장조림
+오이사과무침
 배추김치
 저녁메뉴
 백미밥
-낙지연포탕
-떡갈비호두조림
-잡채
-고추지양념무침
+우동국물
+돈육폭찹
+크림소스우동볶음
+오이피클
+배추김치
+요거트푸딩</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 수(07.22)
+아침메뉴
+백미밥
+김치콩나물만두국
+꽁치무조림
+콘소시지구이/머스타드소스
+감자채볶음
+깍두기
+흰우유,오렌지주스
+저녁메뉴
+백미밥
+된장국
+닭갈비
+메밀부추전/양념장
+치커리오이무침
 배추김치</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 수(07.15)
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 목(07.23)
 아침메뉴
 백미밥
-쇠고기새알미역국
-로스팜구이/케찹
-버섯달걀찜
-양배추오이무침
+부추재첩국
+돈육고추장불고기
+두부달걀전/양념장
+양배추&amp;쌈다시마/쌈장
 배추김치
 저녁메뉴
-백미밥
-들깨수제비국
-가자미카레구이
-비엔나소시지후르츠조림
-숙주니물무침
+날치알볶음밥
+메밀소바
+타꼬야끼
+배추김치
+매실주스</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 금(07.24)
+아침메뉴
+새우살치즈죽
+모닝빵/딸기잼
+함박스테이크/계란후라이
+슬라이스치즈
+양상추샐러드/키위드레싱
+배추김치
+딸기우유,초코우유
+저녁메뉴
+백미밥
+어묵국
+수제치킨탕수육
+모듬떡볶음
+오이지무침
+배추김치
+쥬시쿨</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 토(07.25)
+아침메뉴
+백미밥
+된장국
+쇠고기장조림
+두부완자전/케찹
+감자사과샐러드
+배추김치
+저녁메뉴
+백미밥
+부대찌개/라면사리
+새우까스/타르타르소스
+부들어묵볶음
+오이양파무침
 배추김치</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 목(07.16)
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 일(07.26)
 아침메뉴
 백미밥
-쇠고기무국
-크런치생선까스/타르타르소스
-환어묵청고추조림
+쇠고기미역국
+소시지&amp;햄전/케찹
+낙지떡볶음
 콩나물무침
 배추김치
 저녁메뉴
-잡곡밥
-황기녹두장각탕(뚝)
-찐만두/초간장
-무말랭이무침
-깍두기
-수박화채</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 금(07.17)
-아침메뉴
-백미밥
-돈육김치찌개
-고등어양념구이
-후랑크소시지피망볶음
-도시락김
-깍두기
-프렌치토스트/엔요100
-저녁메뉴
-백미밥
-오이냉국
-돈육생야채초무침
-잡채어묵엿장조림
-호박느타리나물
-배추김치</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 토(07.18)
-아침메뉴
-백미밥
-콩나물무채국
-닭고기계란장조림
-오징어실채조림
-오이소박이
+굴소스햄볶음
+짬뽕(뚝)
+군만두
+단무지
 배추김치
-저녁메뉴
-백미밥
-근대국
-쇠고기장조림
-노란호박전
-오이맛살냉채
-배추김치</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 일(07.19)
-아침메뉴
-백미밥
-어묵국
-미니바베큐바소스조림
-달걀말이
-무생채
-배추김치
-저녁메뉴
-백미밥
-호박고추장찌개
-묵은지야채찜닭
-깐풍만두
-모듬야채스틱된장무침
-깻잎김치</t>
+요구르트</t>
         </is>
       </c>
     </row>
@@ -848,156 +853,153 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 월(07.13)
+          <t>선택한 날짜 : 월(07.20)
 점심메뉴
 [식당 급식: 4500원]
 -11:30~14:00
 현미밥
-들깨수제비국
-숙주돼지불고기
-야채춘권
-새송이버섯구이
-건오징어채볶음
+찹쌀새알미역국
+주꾸미돈육불고기
+꽃맛살샐러드
+멸치견과류조림
+표고버섯호박볶음
 포기김치
 -------------------------
-[6찬도시락-4500원]
+[6찬 도시락-4500원]
 [컵밥도시락-3500원]
-(참치김치볶음밥)
-*11:30~100개 한정
-저녁메뉴
-[식당 급식: 4500원]
--17:30~18:30
-김치볶음밥
-우동국물
-치킨너겟
-맛김구이
-오이생채
-단무지무침
-포기김치</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 화(07.14)
-점심메뉴
-[식당 급식: 4500원]
--11:30~14:00
-야채볶음밥
-계랸야채국
-함박스테이크
-치커리양상치샐러드
-오이피클
-포기김치
-요구르트
--------------------------
-[6찬도시락-4500원]
-[컵밥도시락-3500원]
-(중화비빔밥)
-*11:30~100개 한정
+(숙주불고기덮밥)
+11:30~100개 한정
 저녁메뉴
 [식당 급식: 4500원]
 -17:30~18:30
 현미밥
-매운순대국
-두부양파조림
-마늘종어묵볶음
-진미채무침
-부추겉절이
-깍두기</t>
+우무콩국
+바싹불고기전
+브로컬리들깨볶음
+가지나물무침
+포기김치/ 자두</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 화(07.21)
+점심메뉴
+[식당 급식: 4500원]
+-11:30~14:00
+짜장덮밥
+짬뽕국물
+찹쌀탕수육
+솎음배추생채
+단무지무침
+포기김치/ 요구르트
+-------------------------
+[6찬 도시락-4500원]
+[컵밥도시락-3500원]
+(오므라이스)
+11:30~100개 한정
+저녁메뉴
+[식당 급식: 4500원]
+-17:30~18:30
+열무비빔밥
+팽이버섯된장국
+왕만두찜
+두부은행구이
+건오징어채무침
+새우칩/소스
+포기김치</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 수(07.15)
+          <t>선택한 날짜 : 수(07.22)
 점심메뉴
 [식당 급식: 4500원]
 -11:30~14:00
 현미밥
-버섯찌개
-오징어무침회
-김말이튀김
-베이컨감자채볶음
-연두부/양념장
+아욱된장국
+고추잡채/ 꽃빵
+마늘종찜
+진미채무침
 포기김치
 -------------------------
-[6찬도시락-4500원]
+[6찬 도시락-4500원]
 [컵밥도시락-3500원]
-(스테이크마요덮밥)
-*11:30~100개 한정
+(닭갈비볶음밥)
+11:30~100개 한정
 저녁메뉴
 [식당 급식: 4500원]
 -17:30~18:30
-중화비빔밥
-들깨무채국
-자만두
-모듬야채겉절이
-포기김치
-아이스망고</t>
+현미밥
+오징어무국
+스크램블에그
+김말이튀김
+감자고추장조림
+연두부/ 양념장
+포기김치/ 바나나</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 목(07.16)
-점심메뉴
-[식당 급식: 4500원]
--11:30~14:00
-녹두찹쌀밥
-장각삼계탕
-동그랑땡전
-생야채/ 쌈장
-깐멸치조림
-깍두기
-수박
--------------------------
-[6찬도시락-4500원]
-[컵밥도시락-3500원]
-(콩나물불고기덮밥)
-*11:30~100개 한정
-저녁메뉴
-[식당 급식: 4500원]
--17:30~18:30
-산채비빔밥
-쇠고기무탕국
-왕새우튀김
-매콤떡볶이
-천사채샐러드
-포기김치
-요구르트</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 금(07.17)
+          <t>선택한 날짜 : 목(07.23)
 점심메뉴
 [식당 급식: 4500원]
 -11:30~14:00
 현미밥
-콩가루배추국
-제육고추장불고기
-브로컬리/초고추장
-감자양념구이
-미역줄기볶음
+대구탕
+순대야채볶음
+비빔만두
+우엉젓갈무침
+맛김가루무침
 포기김치
 -------------------------
-[6찬도시락-4500원]
+[6찬 도시락-4500원]
 [컵밥도시락-3500원]
-(갈릭베이컨볶음밥)
-*11:30~100개 한정
+(치킨마요덮밥)
+11:30~100개 한정
 저녁메뉴
 [식당 급식: 4500원]
 -17:30~18:30
-쌀밥 / 계란후라이
-열무된장국
-제육김치볶음
-볶음멸치조림
-콩자반/김가루
+현미밥
+유부장국
+돈까스/ 양파드레싱
+마카로니콘샐러드
+풋고추쌈장무침
+깐멸치조림
+포기김치</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 금(07.24)
+점심메뉴
+[식당 급식: 4500원]
+-11:30~14:00
+현미밥
+북어계란국
+가자미카레구이
 비엔나소세지볶음
-쿨피스</t>
+어묵잡채
+비름나물무침
+포기김치
+-------------------------
+[6찬 도시락-4500원]
+[컵밥도시락-3500원]
+(멘치카츠카레덮밥)
+11:30~100개 한정
+저녁메뉴
+[식당 급식: 4500원]
+-17:30~18:30
+영양닭죽
+야채춘권
+깻잎순멸치볶음
+콩나물무침
+볶은파래자반
+깍두기/ 요구르트</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 토(07.18)
+          <t>선택한 날짜 : 토(07.25)
 점심메뉴
 식당 운영 없음
 저녁메뉴
@@ -1006,7 +1008,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 일(07.19)
+          <t>선택한 날짜 : 일(07.26)
 점심메뉴
 식당 운영 없음
 저녁메뉴

--- a/files/menu.xlsx
+++ b/files/menu.xlsx
@@ -424,392 +424,309 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">선택한 날짜 : 월(07.20)
-오늘의식단
-[식당 급식: 2800원]
--11:30~14:00
-쌀밥
-쇠고기무국
-두부양파조림
-오이생채
-진미채무침
-맛김치
--------------------------
-[6찬 도시락-4500원]
-[컵밥도시락-3500원]
-(숙주불고기덮밥)
-*11:30~100개 한정
-</t>
+          <t>등록된 메뉴가 없습니다. 😥</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve">선택한 날짜 : 화(07.21)
-오늘의식단
-[식당 급식: 2800원]
--11:30~14:00
-쌀밥
-근대된장국
-간장불고기)
-멸치땅콩조림
-콩나물무침
-맛김치
--------------------------
-[6찬 도시락-4500원]
-[컵밥도시락-3500원]
-(오므라이스)*11:30~100개 한정
-</t>
+          <t>등록된 메뉴가 없습니다. 😥</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t xml:space="preserve">선택한 날짜 : 수(07.22)
-오늘의식단
-[식당 급식: 2800원]
--11:30~14:00
-야채볶음밥
-계란야채국
-만두강정
-맛김가루무침
-단무지무침
-맛김치
--------------------------
-[6찬 도시락-4500원]
-[컵밥도시락-3500원]
-(닭갈비볶음밥)
-*11:30~100개
-</t>
+          <t>등록된 메뉴가 없습니다. 😥</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t xml:space="preserve">선택한 날짜 : 목(07.23)
-오늘의식단
-[식당 급식: 2800원]
--11:30~14:00
-쌀밥
-감자맑은국
-햄피망볶음
-어묵잡채
-열무무침
-맛김치
--------------------------
-[6찬 도시락-4500원]
-[컵밥도시락-3500원]
-(치킨마요덮밥)
-*11:30~100개 한정
-</t>
+          <t>등록된 메뉴가 없습니다. 😥</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve">선택한 날짜 : 금(07.24)
-오늘의식단
-[식당 급식: 2800원]
--11:30~14:00
-카레라이스
-두부무채국
-모듬튀김
-마카로니샐러드
-아삭고추쌈장무침
-맛김치
--------------------------
-[6찬 도시락-4500원]
-[컵밥도시락-3500원]
-(멘치카츠카레덮밥)
-*11:30~100개 한정
-</t>
+          <t>등록된 메뉴가 없습니다. 😥</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t xml:space="preserve">선택한 날짜 : 토(07.25)
-오늘의식단
-식당 운영 없음
-</t>
+          <t>등록된 메뉴가 없습니다. 😥</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t xml:space="preserve">선택한 날짜 : 일(07.26)
-오늘의식단
-식당 운영 없음
-</t>
+          <t>등록된 메뉴가 없습니다. 😥</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 월(07.20)
-점심메뉴
-황기영양닭죽
-모듬견과조림
-오징어채무침
+          <t>선택한 날짜 : 월(08.10)
+점심메뉴
+혼합잡곡밥
+근대된장국
+콩나물불고기
+도토리묵양념장
+쥐포구이채조림
+맛김치
+저녁메뉴
+백미밥
+들깨무채국
+깐풍육
+어묵간장볶음
+꽈리고추찜
+맛김치</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 화(08.11)
+점심메뉴
+카레라이스
+미역국
+바사삭순살치킨씨앗강정
+새송이버섯복음
 깍두기
-수박
-저녁메뉴
-병아리콩밥
-미역국
-삼겹살구이
-콩나물무침
-상추쌈
+우유
+저녁메뉴
+흑미밥
+김치찌개
+경양식등심돈까스
+감자튀김
+옥수수콘샐러드
 맛김치</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 화(07.21)
-점심메뉴
-흑미밥
-순두부백탕
-닭고기데리야끼조림
-김치잡채
-호두연근조림
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 수(08.12)
+점심메뉴
+차조밥
+유부된장국
+매운돼지갈비찜
+야채계란찜
+숙주미나리무침
 맛김치
 저녁메뉴
-등뼈감자탕&amp;밥
-왕새우튀김&amp;칠리소스
-풋고추양파초절이
+토마토스파게티
+오이피클
+블루베리샐러드
 깍두기
-요구르트</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 수(07.22)
-점심메뉴
-참치야채비빔밥
-우동국물
-무말랭이무침
+식빵
+블러드오렌지에이드</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 목(08.13)
+점심메뉴
+백미밥
+얼큰콩나물국
+수원왕갈비통닭
+김가루실파무침
+도라지생채
+백깍두기
+저녁메뉴
+렌틸콩밥
+참치김치찌개
+수육
+오징어무말랭이무침
+상추깻잎쌈
+맛김치</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 금(08.14)
+점심메뉴
+제육김치비빔밥
+순두부황태국
+고등어구이
 고구마고로케
+알티라무김치
+아이스홍시
+저녁메뉴
+장칼국수&amp;추가밥
+오징어스틱
+오이고추된장무침
+맛김치</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 토(08.15)
+점심메뉴
+백미밥
+감자양파국
+제육간장불고기
+구이김
+애느타리깨소스
 맛김치
-미숫가루
-저녁메뉴
-차조밥
-시금치된장국
-멘치카츠
-코다리데리야끼강정
-쑥갓두부무침
+저녁메뉴
+혼합잡곡밥
+두부무채국
+김치찜닭
+청포묵김가루무침
+상추파겉절이
+백깍두기</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 일(08.16)
+점심메뉴
+짜장밥&amp;계란후라이
+짬뽕국
+미니돈까스
+단무지
+깍두기
+요플레
+저녁메뉴
+백미밥
+콩나물된장국
+탕수만두
+가자미엿장구이
+열무숙무침
 맛김치
-사과</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 목(07.23)
-점심메뉴
-흑미밥
-콩나물들깨북어국
-후라이드치킨
-달콤한건파래볶음
-가지나물
-맛김치
-요구르트
-저녁메뉴
-꼬지어묵우동&amp;김치주먹밥
-오징어스틱
-단무지
-깍두기</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 금(07.24)
-점심메뉴
-렌틸콩밥
-감자수제비국
-치즈비엔나소세지볶음
-꽁치김치조림
-열무숙무침
-깍두기
-발효유
-저녁메뉴
-백미밥
-다슬기아욱된장국
-제육고추장볶음
-도토리묵양념장
-명엽채볶음
-맛김치</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 토(07.25)
-점심메뉴
-백미밥
-쇠고기무국
-남도떡갈비
-연두부양념장
-얼갈이된장무침
-맛김치
-방울토마토
-저녁메뉴
-백미밥
-들깨무채국
-돼지고기스튜
-아기볼어묵볶음
-숙주나물
-맛김치
-요구르트</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 일(07.26)
-점심메뉴
-짜장밥
-짬뽕국
-튀김만두
-깍두기
-과채쥬스
-저녁메뉴
-흑미밥
-부대찌개
-가자미엿장구이
-햄피망볶음
-치커리무침
-맛김치
-우유</t>
+과채쥬스</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 월(07.20)
+          <t>선택한 날짜 : 월(08.10)
 아침메뉴
 백미밥
-북어달걀국
-닭봉데리조림
-메란새송이조림
-삼색나물
+해물순두부찌개
+가자미엿장구이
+비엔나브로컬리볶음
+열무된장무침
 배추김치
-프로바이오틱
-저녁메뉴
-돈카레라이스
-유부된장국
-치킨까스/소스
-그린샐러드/땅콩드레싱
+요플레
+저녁메뉴
+하이라이스
+미소된장국
+치즈스틱/케찹
+오이피클
 배추김치
 망고주스</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 화(07.21)
+          <t>선택한 날짜 : 화(08.11)
 아침메뉴
 백미밥
-사골곰탕(뚝)
-돈가스강정
-오징어곤약장조림
-오이사과무침
+돈육김치찌개
+베이컨야채볶음
+달걀말이
+시저샐러드
+깍두기
+브라운브레드/딸기잼/딸기우유, 초코우유
+저녁메뉴
+백미밥
+우동국물
+닭강정
+해물우동볶음
+무말랭이무침
+배추김치</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 수(08.12)
+아침메뉴
+백미밥
+우렁된장국
+쇠고기숙주볶음
+잡채어묵강정
+양배추찜&amp;쌈다시마/쌈장
 배추김치
 저녁메뉴
-백미밥
-우동국물
-돈육폭찹
-크림소스우동볶음
-오이피클
+유부초밥
+메밀소바
+단무지
+타꼬야끼
+매실주스</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 목(08.13)
+아침메뉴
+백미밥
+북어국
+고기산적호두조림
+낙지떡볶음
+맛살미엿줄기볶음
 배추김치
-요거트푸딩</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 수(07.22)
+저녁메뉴
+백미밥
+부대찌개
+삼치살엿장조림
+돈육버섯잡채
+양배추오이무침
+배추김치</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 금(08.14)
 아침메뉴
 백미밥
-김치콩나물만두국
-꽁치무조림
-콘소시지구이/머스타드소스
+참치추어탕
+닭고기메란장조림
+해물동그랑땡전/케찹
+호박느타리볶음
+배추김치
+사과
+저녁메뉴
+백미밥
+콩나물냉국
+돈삼겹김치찜
+달걀찜
+어묵볶음
+깍두기</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 토(08.15)
+아침메뉴
+백미밥
+쇠고기무국
+소시지&amp;햄전/케찹
+오징어땅콩조림
 감자채볶음
-깍두기
-흰우유,오렌지주스
-저녁메뉴
-백미밥
-된장국
-닭갈비
-메밀부추전/양념장
-치커리오이무침
+배추김치
+저녁메뉴
+백미밥
+동치미국물
+갈비맛통닭
+비빔냉면
+고추지무침
+배추김치
+수박</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 일(08.16)
+아침메뉴
+백미밥
+만두국
+돈육계란장조림
+두부완자전/케찹
+무생채
+배추김치
+저녁메뉴
+백미밥
+시락국
+돈육고추장불고기
+모듬야채튀김/초간장
+콩나물무침
 배추김치</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 목(07.23)
-아침메뉴
-백미밥
-부추재첩국
-돈육고추장불고기
-두부달걀전/양념장
-양배추&amp;쌈다시마/쌈장
-배추김치
-저녁메뉴
-날치알볶음밥
-메밀소바
-타꼬야끼
-배추김치
-매실주스</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 금(07.24)
-아침메뉴
-새우살치즈죽
-모닝빵/딸기잼
-함박스테이크/계란후라이
-슬라이스치즈
-양상추샐러드/키위드레싱
-배추김치
-딸기우유,초코우유
-저녁메뉴
-백미밥
-어묵국
-수제치킨탕수육
-모듬떡볶음
-오이지무침
-배추김치
-쥬시쿨</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 토(07.25)
-아침메뉴
-백미밥
-된장국
-쇠고기장조림
-두부완자전/케찹
-감자사과샐러드
-배추김치
-저녁메뉴
-백미밥
-부대찌개/라면사리
-새우까스/타르타르소스
-부들어묵볶음
-오이양파무침
-배추김치</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 일(07.26)
-아침메뉴
-백미밥
-쇠고기미역국
-소시지&amp;햄전/케찹
-낙지떡볶음
-콩나물무침
-배추김치
-저녁메뉴
-굴소스햄볶음
-짬뽕(뚝)
-군만두
-단무지
-배추김치
-요구르트</t>
         </is>
       </c>
     </row>
@@ -853,153 +770,155 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 월(07.20)
+          <t>선택한 날짜 : 월(08.10)
 점심메뉴
 [식당 급식: 4500원]
 -11:30~14:00
 현미밥
-찹쌀새알미역국
-주꾸미돈육불고기
-꽃맛살샐러드
-멸치견과류조림
-표고버섯호박볶음
+느타리버섯쇠고기국
+코다리무조림
+미트볼파인애플조림
+오이생채
+건새우고추장볶음
 포기김치
 -------------------------
 [6찬 도시락-4500원]
 [컵밥도시락-3500원]
-(숙주불고기덮밥)
+(반반불고기덮밥)
 11:30~100개 한정
 저녁메뉴
 [식당 급식: 4500원]
 -17:30~18:30
-현미밥
-우무콩국
-바싹불고기전
-브로컬리들깨볶음
-가지나물무침
-포기김치/ 자두</t>
+김치볶음밥
+계란후라이
+유부장국
+함박스테이크
+천사채겨자냉채
+맛김구이
+깍두기</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 화(07.21)
-점심메뉴
-[식당 급식: 4500원]
--11:30~14:00
-짜장덮밥
-짬뽕국물
-찹쌀탕수육
-솎음배추생채
-단무지무침
-포기김치/ 요구르트
--------------------------
-[6찬 도시락-4500원]
-[컵밥도시락-3500원]
-(오므라이스)
-11:30~100개 한정
-저녁메뉴
-[식당 급식: 4500원]
--17:30~18:30
-열무비빔밥
-팽이버섯된장국
-왕만두찜
-두부은행구이
-건오징어채무침
-새우칩/소스
-포기김치</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 수(07.22)
+          <t>선택한 날짜 : 화(08.11)
 점심메뉴
 [식당 급식: 4500원]
 -11:30~14:00
 현미밥
-아욱된장국
-고추잡채/ 꽃빵
-마늘종찜
-진미채무침
+도토리묵채국
+치즈비엔나소세지
+우엉잡채
+솎음배추생채
+미역줄기볶음
 포기김치
 -------------------------
 [6찬 도시락-4500원]
 [컵밥도시락-3500원]
-(닭갈비볶음밥)
+(참치마요덮밥)
 11:30~100개 한정
 저녁메뉴
 [식당 급식: 4500원]
 -17:30~18:30
 현미밥
-오징어무국
-스크램블에그
-김말이튀김
-감자고추장조림
-연두부/ 양념장
-포기김치/ 바나나</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 목(07.23)
+콩나물국
+제육두루치기
+연근브로컬리튀김
+미니새송이버섯볶음
+마카로니샐러드
+포기김치</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 수(08.12)
 점심메뉴
 [식당 급식: 4500원]
 -11:30~14:00
 현미밥
-대구탕
-순대야채볶음
-비빔만두
-우엉젓갈무침
-맛김가루무침
+콩가루배추국
+파돈까스
+두부양념구이
+멸치깻잎순볶음
+숙주나물무침
 포기김치
 -------------------------
 [6찬 도시락-4500원]
 [컵밥도시락-3500원]
-(치킨마요덮밥)
+(갈릭베이컨볶음밥)
 11:30~100개 한정
 저녁메뉴
 [식당 급식: 4500원]
 -17:30~18:30
-현미밥
-유부장국
-돈까스/ 양파드레싱
-마카로니콘샐러드
-풋고추쌈장무침
-깐멸치조림
-포기김치</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 금(07.24)
+산채비빔밥
+팽이버섯장국
+생선까스/소스
+진미채무침
+포기김치
+쥬시쿨</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 목(08.13)
 점심메뉴
 [식당 급식: 4500원]
 -11:30~14:00
 현미밥
-북어계란국
-가자미카레구이
-비엔나소세지볶음
-어묵잡채
-비름나물무침
+열무된장국
+간장불고기
+해파리냉채
+양상치샐러드
+진미채조림
 포기김치
 -------------------------
 [6찬 도시락-4500원]
 [컵밥도시락-3500원]
-(멘치카츠카레덮밥)
+(김치볶음밥)
 11:30~100개 한정
 저녁메뉴
 [식당 급식: 4500원]
 -17:30~18:30
-영양닭죽
+중화비빔밥
+계란야채국
+만두강정
+단무지
+포기김치
+과일</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 금(08.14)
+점심메뉴
+[식당 급식: 4500원]
+-11:30~14:00
+삼계전복죽
 야채춘권
-깻잎순멸치볶음
-콩나물무침
-볶은파래자반
-깍두기/ 요구르트</t>
+큰멸치조림
+풋고추장아찌
+깍두기
+미니크로와상
+수박
+-------------------------
+[6찬 도시락-4500원]
+[컵밥도시락-3500원]
+(훈제오리볶음밥)
+11:30~100개 한정
+저녁메뉴
+[식당 급식: 4500원]
+-17:30~18:30
+미니주먹밥
+토마토스파게티
+크림스프
+닭다리양념구이
+양상치샐러드
+오이피클
+포기김치</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 토(07.25)
+          <t>선택한 날짜 : 토(08.15)
 점심메뉴
 식당 운영 없음
 저녁메뉴
@@ -1008,7 +927,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 일(07.26)
+          <t>선택한 날짜 : 일(08.16)
 점심메뉴
 식당 운영 없음
 저녁메뉴

--- a/files/menu.xlsx
+++ b/files/menu.xlsx
@@ -424,309 +424,369 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>등록된 메뉴가 없습니다. 😥</t>
+          <t>선택한 날짜 : 월(09.14)
+점심메뉴
+식당 운영 없음
+저녁메뉴
+식당 운영 없음</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>등록된 메뉴가 없습니다. 😥</t>
+          <t>선택한 날짜 : 화(09.15)
+점심메뉴
+[식당 급식: 2800원]
+-11:30~14:00
+쌀밥
+참치김치찌개
+새우통살까스
+쥐어채볶음
+마카로니샐러드
+깍두기
+-------------------------
+[6찬도시락-4500원]
+[컵밥도시락-3500원]
+(중화비빔밥)
+*11:30~100개 한정
+저녁메뉴
+[컵밥도시락-3500원]
+(중화비빔밥)
+-17:30~18:30</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>등록된 메뉴가 없습니다. 😥</t>
+          <t>선택한 날짜 : 수(09.16)
+점심메뉴
+[식당 급식: 2800원]
+-11:30~14:00
+쌀밥
+설렁탕
+계란장조림
+아삭고추/오이/쌈장
+새우칩/소스
+깍두기
+-------------------------
+[6찬도시락-4500원]
+[컵밥도시락-3500원]
+(반반불고기덮밥)
+*11:30~100개 한정
+저녁메뉴
+[컵밥도시락-3500원]
+(반반불고기덮밥)
+-17:30~18:30</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>등록된 메뉴가 없습니다. 😥</t>
+          <t>선택한 날짜 : 목(09.17)
+점심메뉴
+[식당 급식: 2800원]
+-11:30~14:00
+짜장밥
+짬뽕국
+탕수육
+콩나물무침
+단무지무침
+맛김치
+-------------------------
+[6찬도시락-4500원]
+[컵밥도시락-3500원]
+(돈가스마요덮밥)
+*11:30~100개 한정
+저녁메뉴
+[컵밥도시락-3500원]
+(돈가스마요덮밥)
+-17:30~18:30</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>등록된 메뉴가 없습니다. 😥</t>
+          <t>선택한 날짜 : 금(09.18)
+점심메뉴
+[식당 급식: 2800원]
+-11:30~14:00
+쌀밥
+단배추된장국
+간장불고기
+어묵야채볶음
+다시마부각
+맛김치
+-------------------------
+[6찬도시락-4500원]
+[컵밥도시락-3500원]
+(갈릭베이컨볶음밥)
+*11:30~100개 한정
+저녁메뉴
+[컵밥도시락-3500원]
+(갈릭베이컨볶음밥)
+-17:30~18:30</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>등록된 메뉴가 없습니다. 😥</t>
+          <t>선택한 날짜 : 토(09.19)
+점심메뉴
+식당 운영 없음
+저녁메뉴
+식당 운영 없음</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>등록된 메뉴가 없습니다. 😥</t>
+          <t>선택한 날짜 : 일(09.20)
+점심메뉴
+식당 운영 없음
+저녁메뉴
+식당 운영 없음</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 월(08.10)
-점심메뉴
-혼합잡곡밥
-근대된장국
-콩나물불고기
-도토리묵양념장
-쥐포구이채조림
+          <t>선택한 날짜 : 월(09.14)
+점심메뉴
+생야채비빔밥
+강된장
+비엔나케찹볶음
+옥수수콘샐러드
 맛김치
 저녁메뉴
-백미밥
-들깨무채국
-깐풍육
-어묵간장볶음
-꽈리고추찜
+차조밥
+아욱토장국
+매운찜닭
+꼬마쥐포무침
+새송이버섯볶음
 맛김치</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 화(08.11)
-점심메뉴
-카레라이스
-미역국
-바사삭순살치킨씨앗강정
-새송이버섯복음
+          <t>선택한 날짜 : 화(09.15)
+점심메뉴
+흑미밥
+어묵매운탕
+제육간장불고기
+야채계란찜
+브로컬리&amp;초장
+맛김치
+저녁메뉴
+쌀밥
+돈육김치찌개
+크리미바비큐
+오이부추생채
 깍두기
-우유
-저녁메뉴
-흑미밥
-김치찌개
-경양식등심돈까스
-감자튀김
-옥수수콘샐러드
-맛김치</t>
+방울토마토</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 수(08.12)
+          <t>선택한 날짜 : 수(09.16)
+점심메뉴
+쌀밥
+순두부찌개
+후라이드치킨
+진미채무침
+숙주나물
+백깍두기
+저녁메뉴
+나시고랭볶음밥
+팽이미소된장국
+미트볼케첩조림
+시금치나물
+맛김치
+발효유</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 목(09.17)
 점심메뉴
 차조밥
-유부된장국
-매운돼지갈비찜
-야채계란찜
-숙주미나리무침
+콩나물맑은국
+삼치유자청데리야끼구이
+잡채
+얼갈이시저샐러드
 맛김치
-저녁메뉴
-토마토스파게티
-오이피클
-블루베리샐러드
-깍두기
-식빵
-블러드오렌지에이드</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 목(08.13)
-점심메뉴
-백미밥
-얼큰콩나물국
-수원왕갈비통닭
-김가루실파무침
-도라지생채
-백깍두기
-저녁메뉴
-렌틸콩밥
-참치김치찌개
-수육
-오징어무말랭이무침
-상추깻잎쌈
-맛김치</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 금(08.14)
-점심메뉴
-제육김치비빔밥
-순두부황태국
-고등어구이
-고구마고로케
-알티라무김치
-아이스홍시
-저녁메뉴
-장칼국수&amp;추가밥
-오징어스틱
-오이고추된장무침
-맛김치</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 토(08.15)
-점심메뉴
-백미밥
-감자양파국
-제육간장불고기
-구이김
-애느타리깨소스
-맛김치
-저녁메뉴
-혼합잡곡밥
-두부무채국
-김치찜닭
-청포묵김가루무침
-상추파겉절이
-백깍두기</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 일(08.16)
-점심메뉴
-짜장밥&amp;계란후라이
-짬뽕국
-미니돈까스
-단무지
-깍두기
-요플레
-저녁메뉴
-백미밥
-콩나물된장국
-탕수만두
-가자미엿장구이
-열무숙무침
+쿨피스
+저녁메뉴
+쌀밥
+감자고추장찌개
+오징어돼지고기짬뽕볶음
+천사채샐러드
+삼동초생채
 맛김치
 과채쥬스</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 금(09.18)
+점심메뉴
+제주고기국수&amp;밥
+꽈리고추찜
+단무지부추무침
+맛김치
+소떡소떡
+저녁메뉴
+흑미밥
+다슬기아욱된장국
+알감자닭조림
+명엽채볶음
+깍뚝오이무침
+맛김치</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 토(09.19)
+점심메뉴
+흑미밥
+들깨수제비국
+돈불낙지볶음
+실곤약야채무침
+취나물무침
+맛김치
+과일푸딩
+저녁메뉴
+쌀밥
+얼큰콩나물국
+멘치카츠
+꽁치구이
+호박새우젓볶음
+맛김치
+식혜</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 일(09.20)
+점심메뉴
+쇠고기야채죽
+오징어무말랭이무침
+오이스틱&amp;쌈장
+맛김치
+바나나
+저녁메뉴
+혼합잡곡밥
+동초된장국
+메추리알돈육조림
+매콤닭불구이
+열무생채
+맛김치</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 월(08.10)
+          <t>선택한 날짜 : 월(09.14)
 아침메뉴
 백미밥
-해물순두부찌개
-가자미엿장구이
-비엔나브로컬리볶음
-열무된장무침
+쇠고기미역국
+함박스테이크소스조림
+달걀볶음
+양상추견과류샐러드/키위드레싱
 배추김치
-요플레
-저녁메뉴
-하이라이스
-미소된장국
-치즈스틱/케찹
-오이피클
-배추김치
-망고주스</t>
+모닝빵/딸기잼/흰우유,딸기우유,초코우유
+저녁메뉴
+카레라이스
+우동
+새우튀김/타르타르소스
+깍두기
+오렌지주스</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 화(08.11)
+          <t>선택한 날짜 : 화(09.15)
 아침메뉴
 백미밥
-돈육김치찌개
-베이컨야채볶음
-달걀말이
-시저샐러드
+시금치된장국
+닭고기메란고추장조림
+삼색전/초간장
+김가루부추무침
+배추김치
+저녁메뉴
+백미밥
+호박고추장찌개
+생선까스/딜소스
+잡채
+오이양파무침
+배추김치
+바나나&amp;사과</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 수(09.16)
+아침메뉴
+백미밥
+육개장(뚝)
+꽁치구이/고추냉이간장
+미니돈까스아몬드강정
+맛살미역줄기볶음
 깍두기
-브라운브레드/딸기잼/딸기우유, 초코우유
+요구르트
 저녁메뉴
 백미밥
-우동국물
-닭강정
+콩나물국
+고구마닭강정
 해물우동볶음
 무말랭이무침
-배추김치</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 수(08.12)
+단배추겉절이
+쥬시쿨자두</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 목(09.17)
 아침메뉴
 백미밥
-우렁된장국
-쇠고기숙주볶음
-잡채어묵강정
-양배추찜&amp;쌈다시마/쌈장
+들깨무채국
+쇠고기버섯불고기
+두부찜/양념장
+진미마늘쫑무침
 배추김치
-저녁메뉴
-유부초밥
-메밀소바
-단무지
-타꼬야끼
-매실주스</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 목(08.13)
-아침메뉴
+방울증편/엔요100
+저녁메뉴
 백미밥
-북어국
-고기산적호두조림
-낙지떡볶음
-맛살미엿줄기볶음
-배추김치
-저녁메뉴
-백미밥
-부대찌개
-삼치살엿장조림
-돈육버섯잡채
-양배추오이무침
-배추김치</t>
+닭곰탕(뚝)
+후르츠탕수육
+쫄면야채무침
+고추지된장무침
+깍두기
+피크닉청포도</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 금(08.14)
-아침메뉴
-백미밥
-참치추어탕
-닭고기메란장조림
-해물동그랑땡전/케찹
-호박느타리볶음
-배추김치
-사과
-저녁메뉴
-백미밥
-콩나물냉국
-돈삼겹김치찜
-달걀찜
-어묵볶음
-깍두기</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 토(08.15)
+          <t>선택한 날짜 : 금(09.18)
 아침메뉴
 백미밥
 쇠고기무국
-소시지&amp;햄전/케찹
-오징어땅콩조림
-감자채볶음
+오징어곤약장조림
+도톰고기완자전/케찹
+모듬버섯볶음
 배추김치
-저녁메뉴
-백미밥
-동치미국물
-갈비맛통닭
-비빔냉면
-고추지무침
+아몬드시리얼/플레인요거트
+저녁메뉴
+비빔밥/약고추장
+청국장찌개
+씨앗찐빵튀김
 배추김치
-수박</t>
+식혜</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>등록된 메뉴가 없습니다. 😥</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 일(08.16)
-아침메뉴
-백미밥
-만두국
-돈육계란장조림
-두부완자전/케찹
-무생채
-배추김치
-저녁메뉴
-백미밥
-시락국
-돈육고추장불고기
-모듬야채튀김/초간장
-콩나물무침
-배추김치</t>
+          <t>등록된 메뉴가 없습니다. 😥</t>
         </is>
       </c>
     </row>
@@ -770,76 +830,145 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 월(08.10)
+          <t>선택한 날짜 : 월(09.14)
 점심메뉴
 [식당 급식: 4500원]
 -11:30~14:00
 현미밥
-느타리버섯쇠고기국
-코다리무조림
-미트볼파인애플조림
+돼지찌개
+파채치킨까스
+해물콩나물찜
+볶음멸치조림
 오이생채
-건새우고추장볶음
 포기김치
 -------------------------
 [6찬 도시락-4500원]
 [컵밥도시락-3500원]
-(반반불고기덮밥)
+(추억의 도시락)
 11:30~100개 한정
 저녁메뉴
 [식당 급식: 4500원]
 -17:30~18:30
-김치볶음밥
-계란후라이
-유부장국
-함박스테이크
-천사채겨자냉채
-맛김구이
-깍두기</t>
+현미밥
+쇠고기버섯국
+생선까스
+옥수수콘샐러드
+진미채무침
+포기김치
+미니크로와상</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 화(08.11)
+          <t>선택한 날짜 : 화(09.15)
 점심메뉴
 [식당 급식: 4500원]
 -11:30~14:00
 현미밥
-도토리묵채국
-치즈비엔나소세지
-우엉잡채
-솎음배추생채
+다슬기아욱된장국
+코다리무조림
+치즈소시지볶음
+땅콩연근조림
+숙주나물무침
+포기김치
+-------------------------
+[6찬 도시락-4500원]
+[컵밥도시락-3500원]
+(중화비빔밥)
+11:30~100개 한정
+저녁메뉴
+[식당 급식: 4500원]
+-17:30~18:30
+매운순대국밥
+군만두
+쥐어채볶음
+어묵콩송이버섯볶음
 미역줄기볶음
+깍두기
+과채쥬스
+-------------------------
+[컵밥도시락-3500원]
+(중화비빔밥)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 수(09.16)
+점심메뉴
+[식당 급식: 4500원]
+-11:30~14:00
+현미밥
+계란야채국
+찹쌀탕수육
+오징어무침회
+만가닥버섯볶음
+볶은파래자반
 포기김치
 -------------------------
 [6찬 도시락-4500원]
 [컵밥도시락-3500원]
-(참치마요덮밥)
+(반반불고기덮밥)
 11:30~100개 한정
 저녁메뉴
 [식당 급식: 4500원]
 -17:30~18:30
 현미밥
-콩나물국
-제육두루치기
-연근브로컬리튀김
-미니새송이버섯볶음
-마카로니샐러드
-포기김치</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 수(08.12)
+배추맑은국
+콩나물불고기
+두부은행구이
+깻잎순멸치볶음
+새우칩/소스
+포기김치
+-------------------------
+[컵밥도시락-3500원]
+(반반불고기덮밥)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 목(09.17)
+점심메뉴
+[식당 급식: 4500원]
+-11:30~14:00
+야채볶음밥
+우동국물
+야채계란말이
+건오징어채무침
+미역오이생채
+양상치샐러드
+포기김치
+-------------------------
+[6찬 도시락-4500원]
+[컵밥도시락-3500원]
+(돈가스마요덮밥)
+11:30~100개 한정
+저녁메뉴
+[식당 급식: 4500원]
+-17:30~18:30
+현미밥
+영양닭죽
+야채춘권
+삼치구이
+부추겉절이
+깍두기
+바나나
+-------------------------
+[컵밥도시락-3500원]
+(돈가스마요덮밥)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 금(09.18)
 점심메뉴
 [식당 급식: 4500원]
 -11:30~14:00
 현미밥
-콩가루배추국
-파돈까스
-두부양념구이
-멸치깻잎순볶음
-숙주나물무침
+근대된장국
+양장피잡채
+감자채볶음
+깐풍만두
+브로컬리두부무침
 포기김치
 -------------------------
 [6찬 도시락-4500원]
@@ -849,76 +978,21 @@
 저녁메뉴
 [식당 급식: 4500원]
 -17:30~18:30
-산채비빔밥
-팽이버섯장국
-생선까스/소스
-진미채무침
+현미밥
+육개장
+고추잡채김말이
+계란장조림
+어묵야채볶음
+열무쌈장무침
 포기김치
-쥬시쿨</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 목(08.13)
-점심메뉴
-[식당 급식: 4500원]
--11:30~14:00
-현미밥
-열무된장국
-간장불고기
-해파리냉채
-양상치샐러드
-진미채조림
-포기김치
--------------------------
-[6찬 도시락-4500원]
-[컵밥도시락-3500원]
-(김치볶음밥)
-11:30~100개 한정
-저녁메뉴
-[식당 급식: 4500원]
--17:30~18:30
-중화비빔밥
-계란야채국
-만두강정
-단무지
-포기김치
-과일</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 금(08.14)
-점심메뉴
-[식당 급식: 4500원]
--11:30~14:00
-삼계전복죽
-야채춘권
-큰멸치조림
-풋고추장아찌
-깍두기
-미니크로와상
-수박
--------------------------
-[6찬 도시락-4500원]
-[컵밥도시락-3500원]
-(훈제오리볶음밥)
-11:30~100개 한정
-저녁메뉴
-[식당 급식: 4500원]
--17:30~18:30
-미니주먹밥
-토마토스파게티
-크림스프
-닭다리양념구이
-양상치샐러드
-오이피클
-포기김치</t>
+-------------------------
+[컵밥도시락-3500원]
+(갈릭베이컨볶음밥)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 토(08.15)
+          <t>선택한 날짜 : 토(09.19)
 점심메뉴
 식당 운영 없음
 저녁메뉴
@@ -927,7 +1001,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 일(08.16)
+          <t>선택한 날짜 : 일(09.20)
 점심메뉴
 식당 운영 없음
 저녁메뉴
